--- a/Result/check3/2025-04-08.xlsx
+++ b/Result/check3/2025-04-08.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-2.5</t>
+          <t>-13.89</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>635</t>
+          <t>681</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>-8.33</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>200.0</t>
+          <t>180.0</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>65.31</t>
+          <t>64.4</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>7411</t>
+          <t>6670</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2.04</t>
+          <t>10.87</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>5259</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>530.0</t>
+          <t>582.5</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>60.37</t>
+          <t>61.25</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>1245</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>15.22</t>
+          <t>22.87</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1690</t>
+          <t>5860</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>60.37</t>
+          <t>61.25</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1018</t>
+          <t>1119</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>644</t>
+          <t>1345</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>20.7</t>
+          <t>21.02</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>43.3</t>
+          <t>43.0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>58661</t>
+          <t>59556</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>建材營造平</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -1701,84 +1701,84 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
+          <t>-2.83</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>3840</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>-0.89</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>191.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>10758</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>-0.88</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>191.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>83.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>2025-04-02</t>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>9.17</t>
+          <t>9.43</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>35.16</t>
+          <t>34.19</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>42.45</t>
+          <t>44.38</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>4255</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">

--- a/Result/check3/2025-04-08.xlsx
+++ b/Result/check3/2025-04-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV6"/>
+  <dimension ref="A1:AV5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,17 +683,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6199</t>
+          <t>5251</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>9.36</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1645.0</t>
+          <t>2431.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,27 +703,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-4.43</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>15.92</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>123.0</t>
+          <t>31.15</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -733,72 +733,72 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-13.89</t>
+          <t>18.88</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>768</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>9.46</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-8.33</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>21.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>83.0</t>
+          <t>89.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -808,37 +808,37 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>-2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-13</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>5928.0</t>
+          <t>99211.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>天品</t>
+          <t>天鉞電</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -853,52 +853,52 @@
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>180.0</t>
+          <t>640.0</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>80.64%</t>
+          <t>42.46%</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>-2.58%</t>
+          <t>5.73%</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>6670</t>
+          <t>1368</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>殯葬服務79.63%、租賃16.66%、文創3.72% (2024年)</t>
+          <t>安全監視產品56.55%、其他23.61%、智能電子門鎖19.84% (2024年)</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>天品-其他-上櫃</t>
+          <t>天鉞電-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>其他右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>11.89</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -908,12 +908,12 @@
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
+          <t>** 電腦及週邊設備 - 安全監控系統</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5251</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>9.89</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2431.0</t>
+          <t>2231.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,27 +945,27 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>13.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>16.97</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>31.15</t>
+          <t>23.95</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -975,22 +975,22 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>10.87</t>
+          <t>29.87</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>37</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>5259</t>
+          <t>7745</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>6.22</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1010,37 +1010,37 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>125.0</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>89.0</t>
+          <t>87.0</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -1050,32 +1050,32 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>87</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>99211.0</t>
+          <t>130342.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>天鉞電</t>
+          <t>杭特</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
@@ -1095,42 +1095,42 @@
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>582.5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>42.46%</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>-25.64%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>61.25</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1245</t>
+          <t>1231</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>安全監視產品56.55%、其他23.61%、智能電子門鎖19.84% (2024年)</t>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>天鉞電-光電業-上櫃</t>
+          <t>杭特-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>11.89</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>2539</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>-0.75</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2231.0</t>
+          <t>2503.023</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,202 +1187,202 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>13.51</t>
+          <t>5.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>16.97</t>
+          <t>51.82</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1588</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>23.95</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>22.87</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>5860</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>99.0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>125.0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>87.0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-02-21</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>42</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>130342.0</t>
+          <t>-204101604.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>杭特</t>
+          <t>櫻花建</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>建材營造</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21.3</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>33.49%</t>
+          <t>46.98%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>-25.64%</t>
+          <t>42.67%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>61.25</t>
+          <t>43.94</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1119</t>
+          <t>60351</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
+          <t>房地銷售99.91%、其他0.09% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>杭特-光電業-上櫃</t>
+          <t>櫻花建-建材營造-上市</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>建材營造右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>14.37</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1392,12 +1392,12 @@
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
+          <t>** 建材營造 - 建設業</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2503.023</t>
+          <t>25281.807</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1429,27 +1429,27 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>-9.17</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>51.82</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>10.9</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1459,77 +1459,77 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>-4.31</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1345</t>
+          <t>3573</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>-4.30</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>191.0</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>83.0</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1539,32 +1539,32 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>83</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>-204101604.0</t>
+          <t>-51261423.0</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>櫻花建</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>玻璃陶瓷</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1574,57 +1574,57 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>21.02</t>
+          <t>33.71</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>46.98%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>42.67%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>43.0</t>
+          <t>44.48</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>59556</t>
+          <t>4080</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>房地銷售99.91%、其他0.09% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>櫻花建-建材營造-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>玻璃陶瓷平</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
-          <t>14.37</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr">
@@ -1634,252 +1634,10 @@
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
-        <is>
-          <t>** 建材營造 - 建設業</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-04-08</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1806</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-0.45</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>25281.807</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-9.17</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>10.9</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-2.83</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>3840</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>-0.89</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>191.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>83.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>2025-04-12</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>-51261423.0</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>冠軍</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>9.43</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>34.19</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>24.19%</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>9.98%</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>44.38</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>4138</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>瓷磚98.03%、木地板(坪/平方公尺/片)1.97% (2023年)</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷平</t>
-        </is>
-      </c>
-      <c r="AS6" t="inlineStr">
-        <is>
-          <t>14.4</t>
-        </is>
-      </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV6" t="inlineStr">
         <is>
           <t>** 建材營造 - 建材原料</t>
         </is>

--- a/Result/check3/2025-04-08.xlsx
+++ b/Result/check3/2025-04-08.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV5"/>
+  <dimension ref="A1:AV6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,17 +683,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5251</t>
+          <t>5489</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9.36</t>
+          <t>-0.38</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2431.0</t>
+          <t>176.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,27 +703,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.68</t>
+          <t>-1.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>30.61</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.73</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>31.15</t>
+          <t>39.85</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -733,57 +733,57 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>18.88</t>
+          <t>12.71</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>2</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>768</t>
+          <t>575</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>21.0</t>
+          <t>101.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>89.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -813,32 +813,32 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>99211.0</t>
+          <t>-8734.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>天鉞電</t>
+          <t>彩富</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -848,57 +848,57 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>640.0</t>
+          <t>19.1</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>42.46%</t>
+          <t>38.43%</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>5.73%</t>
+          <t>11.45%</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>28.73</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>1368</t>
+          <t>4689</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>安全監視產品56.55%、其他23.61%、智能電子門鎖19.84% (2024年)</t>
+          <t>安全監控系統91.23%、其他8.55%、機器視覺系統0.22% (2024年)</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>天鉞電-光電業-上櫃</t>
+          <t>彩富-其他電子業-上櫃</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>11.89</t>
+          <t>23.44</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -908,12 +908,12 @@
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 平面顯示器 - 生產製程及檢測設備</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>5251</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9.89</t>
+          <t>9.36</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2231.0</t>
+          <t>2431.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,192 +945,192 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>13.51</t>
+          <t>6.68</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>16.97</t>
+          <t>12.58</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>31.15</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>26.18</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>5222</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>23.95</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>2025-03-13</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>99211.0</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>天鉞電</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>29.87</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>7745</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>0.29</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>125.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>87.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>130342.0</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>杭特</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>光電業</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>703.33</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>33.49%</t>
+          <t>42.46%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>-25.64%</t>
+          <t>5.73%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>63.7</t>
+          <t>67.41</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>1504</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
+          <t>安全監視產品56.55%、其他23.61%、智能電子門鎖19.84% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>杭特-光電業-上櫃</t>
+          <t>天鉞電-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>11.89</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
+          <t>** 電腦及週邊設備 - 安全監控系統</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-0.75</t>
+          <t>9.89</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2503.023</t>
+          <t>2231.0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.91</t>
+          <t>13.51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>51.82</t>
+          <t>16.97</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>56.4</t>
+          <t>23.95</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,72 +1217,72 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>7.08</t>
+          <t>29.56</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>42</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1588</t>
+          <t>2236</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>3.92</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.36</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>125.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>87.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1292,97 +1292,97 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>87</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>-204101604.0</t>
+          <t>130342.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>櫻花建</t>
+          <t>杭特</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>4.12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>21.3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>46.98%</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>42.67%</t>
+          <t>-25.64%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>43.94</t>
+          <t>67.41</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>60351</t>
+          <t>1226</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>房地銷售99.91%、其他0.09% (2024年)</t>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>櫻花建-建材營造-上市</t>
+          <t>杭特-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>14.37</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1392,12 +1392,12 @@
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建設業</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>
       </c>
     </row>
@@ -1409,235 +1409,477 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2539</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-0.75</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2503.023</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>51.82</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>56.4</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1281</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>-204101604.0</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>櫻花建</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>建材營造</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>46.98%</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>42.67%</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>45.18</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>62340</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>房地銷售99.91%、其他0.09% (2024年)</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>櫻花建-建材營造-上市</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>建材營造右上</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>短增右下</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>** 建材營造 - 建設業</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-04-08</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>1806</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>-0.45</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>25281.807</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-9.17</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>1.45</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>100.00</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>1.92</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>10.9</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>-4.31</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>3573</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>5797</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
         <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>-4.30</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>0.07</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>0.05</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>4.47</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>0.19</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>191.0</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>83.0</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>True</t>
         </is>
       </c>
-      <c r="AA5" t="inlineStr">
+      <c r="AA6" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AB6" t="inlineStr">
         <is>
           <t>2025-04-02</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
         <is>
           <t>83</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>-51261423.0</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>冠軍</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>玻璃陶瓷</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>上市</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>2.22</t>
         </is>
       </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>33.71</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>35.65</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
         <is>
           <t>24.19%</t>
         </is>
       </c>
-      <c r="AM5" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>9.98%</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>44.48</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>4080</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>46.69</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>4314</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
         <is>
           <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
-      <c r="AQ5" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷平</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>玻璃陶瓷右上</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
         <is>
           <t>14.4</t>
         </is>
       </c>
-      <c r="AT5" t="inlineStr">
+      <c r="AT6" t="inlineStr">
         <is>
           <t>短增右下</t>
         </is>
       </c>
-      <c r="AU5" t="inlineStr">
+      <c r="AU6" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="AV5" t="inlineStr">
+      <c r="AV6" t="inlineStr">
         <is>
           <t>** 建材營造 - 建材原料</t>
         </is>

--- a/Result/check3/2025-04-08.xlsx
+++ b/Result/check3/2025-04-08.xlsx
@@ -713,7 +713,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>30.61</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>12.71</t>
+          <t>19.98</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>2107</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.61</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>19.1</t>
+          <t>20.84</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>28.73</t>
+          <t>28.21</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>4689</t>
+          <t>5115</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -980,7 +980,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>92</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>29.56</t>
+          <t>25.62</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2236</t>
+          <t>1342</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>-6.21</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>67.41</t>
+          <t>66.84</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1226</t>
+          <t>1161</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>10.05</t>
+          <t>10.48</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>1007</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>-0.30</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>22.11</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>45.18</t>
+          <t>44.28</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>62340</t>
+          <t>62638</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>5797</t>
+          <t>5193</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>9.05</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>35.65</t>
+          <t>36.13</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>46.69</t>
+          <t>46.82</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>4314</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">

--- a/Result/check3/2025-04-08.xlsx
+++ b/Result/check3/2025-04-08.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>19.98</t>
+          <t>11.15</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2107</t>
+          <t>1838</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>-13.27</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>3.61</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>20.84</t>
+          <t>18.77</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>28.21</t>
+          <t>28.32</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>5115</t>
+          <t>4606</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>26.18</t>
+          <t>17.15</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>50</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>5222</t>
+          <t>8926</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>4.46</t>
+          <t>-14.61</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>703.33</t>
+          <t>626.67</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>67.41</t>
+          <t>64.79</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1504</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>25.62</t>
+          <t>24.45</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1342</t>
+          <t>1162</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-6.21</t>
+          <t>-5.33</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>66.84</t>
+          <t>64.79</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1161</t>
+          <t>1143</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>10.48</t>
+          <t>10.33</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1007</t>
+          <t>705</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>22.11</t>
+          <t>22.07</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>44.28</t>
+          <t>44.14</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>62638</t>
+          <t>62538</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>5193</t>
+          <t>3793</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2025-04-18</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>8.93</t>
+          <t>8.89</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>36.13</t>
+          <t>36.29</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>46.82</t>
+          <t>47.12</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4392</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">

--- a/Result/check3/2025-04-08.xlsx
+++ b/Result/check3/2025-04-08.xlsx
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>11.15</t>
+          <t>19.17</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1838</t>
+          <t>715</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-13.27</t>
+          <t>8.83</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>18.77</t>
+          <t>20.63</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>28.32</t>
+          <t>28.45</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>4606</t>
+          <t>5063</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>17.15</t>
+          <t>24.67</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>8926</t>
+          <t>3301</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>-14.61</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>626.67</t>
+          <t>689.17</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>64.79</t>
+          <t>66.65</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1340</t>
+          <t>1473</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>24.45</t>
+          <t>31.28</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1162</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-5.33</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>64.79</t>
+          <t>66.65</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1143</t>
+          <t>1256</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>10.33</t>
+          <t>11.18</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>1279</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>22.07</t>
+          <t>22.28</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>44.14</t>
+          <t>44.08</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>62538</t>
+          <t>63135</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>3.11</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>3793</t>
+          <t>10355</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-5.72</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>36.29</t>
+          <t>36.61</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>47.12</t>
+          <t>46.77</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>4392</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">

--- a/Result/check3/2025-04-08.xlsx
+++ b/Result/check3/2025-04-08.xlsx
@@ -713,7 +713,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>8.35</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>19.17</t>
+          <t>26.07</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>27</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>10964</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>8.83</t>
+          <t>-2.36</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>3.34</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>20.63</t>
+          <t>22.55</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>28.45</t>
+          <t>27.32</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>5063</t>
+          <t>5536</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>10.78</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>24.67</t>
+          <t>22.9</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>90</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>3301</t>
+          <t>21566</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>1.1</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>8.10</t>
+          <t>-4.43</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>689.17</t>
+          <t>673.33</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>66.65</t>
+          <t>64.28</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1473</t>
+          <t>1439</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>31.28</t>
+          <t>19.09</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1951</t>
+          <t>596</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>9.25</t>
+          <t>-6.08</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>66.65</t>
+          <t>64.28</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1256</t>
+          <t>1067</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>11.18</t>
+          <t>9.62</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1279</t>
+          <t>2265</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>3.93</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>22.28</t>
+          <t>21.89</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>44.08</t>
+          <t>43.77</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>63135</t>
+          <t>62041</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>10355</t>
+          <t>3157</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-5.72</t>
+          <t>-4.09</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-19</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>8.81</t>
+          <t>9.09</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>36.61</t>
+          <t>35.48</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>46.77</t>
+          <t>45.66</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>4431</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
